--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91964.66280656547</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14015837.94718544</v>
+        <v>11966797.60949129</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30521977.82306018</v>
+        <v>28123284.67046642</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-7.95054887445791e-11</v>
+        <v>1343767.746507278</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8234,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9182,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9340,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9802,19 +9804,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10051,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10288,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10762,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10999,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11236,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>77.82929286268265</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11473,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -22644,34 +22646,34 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -22726,28 +22728,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -22805,7 +22807,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>214.587604768856</v>
@@ -22817,7 +22819,7 @@
         <v>224.5875773965909</v>
       </c>
       <c r="N5" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>224.3457561361446</v>
@@ -22826,10 +22828,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -22881,10 +22883,10 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>134.395403</v>
@@ -22896,7 +22898,7 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>139.0313383333333</v>
@@ -22905,10 +22907,10 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -22963,28 +22965,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
@@ -23042,7 +23044,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>214.587604768856</v>
@@ -23063,10 +23065,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -23279,10 +23281,10 @@
         <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>229.8722545957376</v>
@@ -23300,10 +23302,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
@@ -23516,7 +23518,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>214.587604768856</v>
@@ -23537,10 +23539,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
         <v>205.8649517235392</v>
@@ -23595,7 +23597,7 @@
         <v>97.03432049999999</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>134.395403</v>
@@ -23616,10 +23618,10 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -23674,28 +23676,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
         <v>173.3911476697823</v>
@@ -23753,7 +23755,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>214.587604768856</v>
@@ -23774,10 +23776,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
         <v>205.8649517235392</v>
@@ -23829,7 +23831,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>123.666686</v>
@@ -23850,13 +23852,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
         <v>168.9616139056444</v>
@@ -23911,7 +23913,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J19" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K19" t="n">
         <v>125.787926716272</v>
@@ -23932,7 +23934,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
         <v>173.3911476697823</v>
@@ -23990,7 +23992,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
         <v>214.587604768856</v>
@@ -24014,7 +24016,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R20" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
@@ -24066,10 +24068,10 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>134.395403</v>
@@ -24093,7 +24095,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R21" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
@@ -24148,28 +24150,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J22" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K22" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L22" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>135.4526393489149</v>
       </c>
       <c r="N22" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R22" t="n">
         <v>173.3911476697823</v>
@@ -24227,7 +24229,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>214.587604768856</v>
@@ -24303,10 +24305,10 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>134.395403</v>
@@ -24327,10 +24329,10 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
         <v>168.9616139056444</v>
@@ -24394,19 +24396,19 @@
         <v>131.5125593742073</v>
       </c>
       <c r="M25" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
         <v>173.3911476697823</v>
@@ -24464,7 +24466,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>214.587604768856</v>
@@ -24488,7 +24490,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R26" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
@@ -24540,7 +24542,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
         <v>123.666686</v>
@@ -24567,7 +24569,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
@@ -24643,7 +24645,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q28" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
         <v>173.3911476697823</v>
@@ -24701,7 +24703,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
         <v>214.587604768856</v>
@@ -24719,13 +24721,13 @@
         <v>224.3457561361446</v>
       </c>
       <c r="P29" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>216.7480476275882</v>
       </c>
       <c r="R29" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
@@ -24777,10 +24779,10 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>134.395403</v>
@@ -24804,7 +24806,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
         <v>168.9616139056444</v>
@@ -24862,7 +24864,7 @@
         <v>123.8205359034112</v>
       </c>
       <c r="K31" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L31" t="n">
         <v>131.5125593742073</v>
@@ -24880,7 +24882,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q31" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
         <v>173.3911476697823</v>
@@ -24938,7 +24940,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>214.587604768856</v>
@@ -24962,7 +24964,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R32" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
@@ -25041,7 +25043,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
         <v>168.9616139056444</v>
@@ -25096,7 +25098,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J34" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K34" t="n">
         <v>125.787926716272</v>
@@ -25175,7 +25177,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>214.587604768856</v>
@@ -25199,7 +25201,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R35" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
@@ -25251,10 +25253,10 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>134.395403</v>
@@ -25278,7 +25280,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
         <v>168.9616139056444</v>
@@ -25333,10 +25335,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J37" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K37" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L37" t="n">
         <v>131.5125593742073</v>
@@ -25354,7 +25356,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
         <v>173.3911476697823</v>
@@ -25412,7 +25414,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>214.587604768856</v>
@@ -25436,7 +25438,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R38" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
         <v>205.8649517235392</v>
@@ -25488,7 +25490,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>123.666686</v>
@@ -25509,13 +25511,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -25573,7 +25575,7 @@
         <v>123.8205359034112</v>
       </c>
       <c r="K40" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L40" t="n">
         <v>131.5125593742073</v>
@@ -25591,7 +25593,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R40" t="n">
         <v>173.3911476697823</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>214.587604768856</v>
@@ -25670,10 +25672,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
@@ -25725,7 +25727,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>123.666686</v>
@@ -25752,7 +25754,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
@@ -25828,7 +25830,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
         <v>173.3911476697823</v>
@@ -25877,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>413.934522038312</v>
       </c>
       <c r="H44" t="n">
-        <v>338.1439033881534</v>
+        <v>328.7194610210322</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>169.7466255189538</v>
       </c>
       <c r="J44" t="n">
-        <v>176.5197569135191</v>
+        <v>98.41525156930325</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>97.52919776222207</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>84.65094969160234</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>63.00089454090767</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>59.47641268871214</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>69.29510178405982</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>93.12002459555268</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>117.3721168894014</v>
       </c>
       <c r="R44" t="n">
-        <v>210.1958993687788</v>
+        <v>84.04458539159593</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>184.8949060317757</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>218.936751863861</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4041441073029</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,49 +25958,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>135.5308365967838</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>105.7072230423724</v>
       </c>
       <c r="I45" t="n">
-        <v>97.03432049999999</v>
+        <v>69.55120651446384</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>77.14817768641285</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>54.88786293308858</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>28.18282082555037</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>13.82444031476771</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>21.88313163507588</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>36.60328338528051</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>73.63117054633832</v>
       </c>
       <c r="R45" t="n">
-        <v>142.0375163648649</v>
+        <v>64.12462538166871</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>159.8159900855784</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>196.3979207416475</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6247840666579</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>167.4767994368456</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6340720089168</v>
+        <v>157.9639981506375</v>
       </c>
       <c r="I46" t="n">
-        <v>153.7585467974036</v>
+        <v>141.344840945473</v>
       </c>
       <c r="J46" t="n">
-        <v>123.8205359034112</v>
+        <v>59.65462775411975</v>
       </c>
       <c r="K46" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>70.14201962134344</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>70.74600996413862</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>61.32535548916809</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>76.6492064337699</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>84.35979105369728</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7173765887097</v>
+        <v>45.19520876274868</v>
       </c>
       <c r="R46" t="n">
-        <v>173.3911476697823</v>
+        <v>154.8306309999973</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>215.1636118833841</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3324659915077</v>
+        <v>226.5687290657497</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0297546005226</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>165205.3089571735</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>64210.83704757041</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>94102.89039187203</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>123763.7003755127</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>92647.8083130921</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>78536.0886980441</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>73176.28558848533</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>41166.21430694957</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>86410.33752307527</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>38999.88125002394</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>56474.08114306052</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>55521.16052527367</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>71359.21734147258</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.875779945403336e-12</v>
+        <v>241688.1841816726</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16520.53089571735</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6421.083704757043</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9410.289039187208</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12376.37003755128</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9264.780831309212</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7853.608869804411</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7317.628558848539</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4116.621430694958</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8641.033752307532</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3899.988125002395</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5647.408114306056</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5552.116052527372</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7135.921734147262</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>26616.38812246421</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152357.359689353</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16520.53089571735</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6421.083704757043</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9410.289039187208</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12376.37003755128</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9264.780831309214</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7853.608869804413</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7317.628558848538</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4116.621430694958</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8641.033752307532</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3899.988125002395</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5647.408114306056</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5552.116052527373</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7135.921734147262</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2140.691079495013</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4990.249710368006</v>
       </c>
     </row>
     <row r="6">
@@ -26540,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-132871.9123567518</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.9202433655189716</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.42444236712117</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>35.47768234917019</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>78.10450534421588</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>117.058407006634</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.2213049041352</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>161.5866828556833</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>164.201324317964</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>155.0506543520847</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>132.3321462658351</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>99.3759307381869</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>57.80623730928114</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>20.97004569176358</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.0283653325593</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.0736194692415177</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4923736082585709</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.755292479760408</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.95233695100782</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>46.51850831358718</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>79.50754006691143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>106.907699459827</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>124.7562427592001</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>117.1482066982574</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>94.02176384369149</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>62.85105918753266</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>30.57035437942251</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.145623820065993</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.984611166621169</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.03239300054332704</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.4127894932625061</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.670073858279375</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12.41370585193064</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>29.18421717365919</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>47.95863385358934</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>61.37053975286388</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>64.70662938477629</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>63.16805036443428</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>58.3459185567768</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>49.92501289422163</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>34.5654911130995</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.56051666978504</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.1937950780384</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.76373692575798</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02251579054159127</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91964.66280656547</v>
+        <v>-217849.8032510781</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11966797.60949129</v>
+        <v>6058391.215842249</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28123284.67046642</v>
+        <v>22564531.09171689</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1343767.746507278</v>
+        <v>4293936.955425137</v>
       </c>
     </row>
     <row r="11">
@@ -8218,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N5" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
         <v>216.7480476275882</v>
@@ -8297,22 +8297,22 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8455,22 +8455,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
         <v>216.7480476275882</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>214.587604768856</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q11" t="n">
         <v>216.7480476275882</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q14" t="n">
         <v>216.7480476275882</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
         <v>123.666686</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
         <v>136.482229733871</v>
@@ -9166,22 +9166,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q17" t="n">
         <v>216.7480476275882</v>
@@ -9242,22 +9242,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
         <v>130.625047228972</v>
@@ -9324,22 +9324,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9403,25 +9403,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9482,25 +9482,25 @@
         <v>123.666686</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9567,7 +9567,7 @@
         <v>131.5125593742073</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N22" t="n">
         <v>124.4934058536024</v>
@@ -9640,28 +9640,28 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
         <v>136.482229733871</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M25" t="n">
         <v>135.4526393489149</v>
@@ -9877,25 +9877,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9953,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10114,25 +10114,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P29" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10193,25 +10193,25 @@
         <v>123.666686</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
         <v>111.0135169984386</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10351,25 +10351,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10509,25 +10509,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10667,25 +10667,25 @@
         <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10749,19 +10749,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10825,25 +10825,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10901,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
         <v>111.0135169984386</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11062,22 +11062,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q41" t="n">
         <v>216.7480476275882</v>
@@ -11138,28 +11138,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11457,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>77.82929286268265</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -22810,22 +22810,22 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -22889,22 +22889,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -23047,22 +23047,22 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -23120,34 +23120,34 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
@@ -23202,28 +23202,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -23287,19 +23287,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23357,34 +23357,34 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
         <v>168.9616139056444</v>
@@ -23439,28 +23439,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
         <v>173.3911476697823</v>
@@ -23521,22 +23521,22 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23594,28 +23594,28 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -23758,22 +23758,22 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23834,22 +23834,22 @@
         <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -23916,22 +23916,22 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K19" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>79.76069987584818</v>
@@ -23995,25 +23995,25 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K20" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>141.8508227008771</v>
@@ -24074,25 +24074,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>94.69497976109122</v>
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24232,28 +24232,28 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
         <v>205.8649517235392</v>
@@ -24311,22 +24311,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24387,13 +24387,13 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K25" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -24469,25 +24469,25 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>141.8508227008771</v>
@@ -24545,28 +24545,28 @@
         <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>94.69497976109122</v>
@@ -24624,25 +24624,25 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J28" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K28" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L28" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>79.76069987584818</v>
@@ -24706,25 +24706,25 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>141.8508227008771</v>
@@ -24785,25 +24785,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>94.69497976109122</v>
@@ -24861,25 +24861,25 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J31" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K31" t="n">
         <v>14.77440971783335</v>
       </c>
       <c r="L31" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>79.76069987584818</v>
@@ -24943,25 +24943,25 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>141.8508227008771</v>
@@ -25016,31 +25016,31 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>94.69497976109122</v>
@@ -25101,25 +25101,25 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K34" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L34" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R34" t="n">
         <v>173.3911476697823</v>
@@ -25180,25 +25180,25 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>141.8508227008771</v>
@@ -25259,25 +25259,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>94.69497976109122</v>
@@ -25341,19 +25341,19 @@
         <v>14.77440971783335</v>
       </c>
       <c r="L37" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>79.76069987584818</v>
@@ -25417,25 +25417,25 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>141.8508227008771</v>
@@ -25493,28 +25493,28 @@
         <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>94.69497976109122</v>
@@ -25572,25 +25572,25 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J40" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K40" t="n">
         <v>14.77440971783335</v>
       </c>
       <c r="L40" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>79.76069987584818</v>
@@ -25654,22 +25654,22 @@
         <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25730,28 +25730,28 @@
         <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>94.69497976109122</v>
@@ -25809,25 +25809,25 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J43" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K43" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L43" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>79.76069987584818</v>
@@ -25879,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.934522038312</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>328.7194610210322</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>169.7466255189538</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>98.41525156930325</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
-        <v>97.52919776222207</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>84.65094969160234</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>63.00089454090767</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>59.47641268871214</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>69.29510178405982</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>93.12002459555268</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>117.3721168894014</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>84.04458539159593</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>184.8949060317757</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>218.936751863861</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4041441073029</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,49 +25958,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5308365967838</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>105.7072230423724</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>69.55120651446384</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
-        <v>77.14817768641285</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>54.88786293308858</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>28.18282082555037</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>13.82444031476771</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>21.88313163507588</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>36.60328338528051</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.63117054633832</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>64.12462538166871</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>159.8159900855784</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>196.3979207416475</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6247840666579</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4767994368456</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H46" t="n">
-        <v>157.9639981506375</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I46" t="n">
-        <v>141.344840945473</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J46" t="n">
-        <v>59.65462775411975</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L46" t="n">
-        <v>70.14201962134344</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>70.74600996413862</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>61.32535548916809</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>76.6492064337699</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>84.35979105369728</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.19520876274868</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
-        <v>154.8306309999973</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S46" t="n">
-        <v>215.1636118833841</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>226.5687290657497</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0297546005226</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>165205.3089571735</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>64210.83704757041</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>94102.89039187203</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>123763.7003755127</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92647.8083130921</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78536.0886980441</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>73176.28558848533</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41166.21430694957</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86410.33752307527</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38999.88125002394</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>56474.08114306052</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55521.16052527367</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>71359.21734147258</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>241688.1841816726</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>37134.75141293493</v>
       </c>
       <c r="C2" t="n">
-        <v>16520.53089571735</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="D2" t="n">
-        <v>6421.083704757043</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="E2" t="n">
-        <v>9410.289039187208</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="F2" t="n">
-        <v>12376.37003755128</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="G2" t="n">
-        <v>9264.780831309212</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="H2" t="n">
-        <v>7853.608869804411</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="I2" t="n">
-        <v>7317.628558848539</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="J2" t="n">
-        <v>4116.621430694958</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="K2" t="n">
-        <v>8641.033752307532</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="L2" t="n">
-        <v>3899.988125002395</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="M2" t="n">
-        <v>5647.408114306056</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="N2" t="n">
-        <v>5552.116052527372</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="O2" t="n">
-        <v>7135.921734147262</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="P2" t="n">
-        <v>26616.38812246421</v>
+        <v>37134.75141293493</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>152357.359689353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>37134.75141293493</v>
       </c>
       <c r="C4" t="n">
-        <v>16520.53089571735</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="D4" t="n">
-        <v>6421.083704757043</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="E4" t="n">
-        <v>9410.289039187208</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="F4" t="n">
-        <v>12376.37003755128</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="G4" t="n">
-        <v>9264.780831309214</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="H4" t="n">
-        <v>7853.608869804413</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="I4" t="n">
-        <v>7317.628558848538</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="J4" t="n">
-        <v>4116.621430694958</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="K4" t="n">
-        <v>8641.033752307532</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="L4" t="n">
-        <v>3899.988125002395</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="M4" t="n">
-        <v>5647.408114306056</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="N4" t="n">
-        <v>5552.116052527373</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="O4" t="n">
-        <v>7135.921734147262</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="P4" t="n">
-        <v>2140.691079495013</v>
+        <v>37134.75141293493</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4990.249710368006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48670.62072781128</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48670.62072781128</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48670.62072781128</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="I6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-15043.02072781128</v>
       </c>
       <c r="P6" t="n">
-        <v>-132871.9123567518</v>
+        <v>-15043.02072781128</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>228.9105371728443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>228.9105371728443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9202433655189716</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.42444236712117</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>35.47768234917019</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>78.10450534421588</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>117.058407006634</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>145.2213049041352</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>161.5866828556833</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>164.201324317964</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>155.0506543520847</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>132.3321462658351</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.3759307381869</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.80623730928114</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.97004569176358</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>4.0283653325593</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0736194692415177</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4923736082585709</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.755292479760408</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.95233695100782</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.51850831358718</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>79.50754006691143</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>106.907699459827</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>124.7562427592001</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>117.1482066982574</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>94.02176384369149</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>62.85105918753266</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.57035437942251</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>9.145623820065993</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.984611166621169</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03239300054332704</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4127894932625061</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.670073858279375</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.41370585193064</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>29.18421717365919</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>47.95863385358934</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>61.37053975286388</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>64.70662938477629</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>63.16805036443428</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>58.3459185567768</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>49.92501289422163</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.5654911130995</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.56051666978504</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7.1937950780384</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.76373692575798</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02251579054159127</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
